--- a/relativepathsfiles/AdminTab.xlsx
+++ b/relativepathsfiles/AdminTab.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dolin\GitHub\excel_relativepaths\relative paths files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dolin\GitHub\excel_relativepaths\relativepathsfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54E5C5E0-A97E-4C3A-B6AF-B9104602BC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80C1B6F-8F9F-4084-B434-292196FD23DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1890" yWindow="1170" windowWidth="21615" windowHeight="14055" xr2:uid="{4333EEBA-50F5-4E40-AA99-6CA472D1D469}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4333EEBA-50F5-4E40-AA99-6CA472D1D469}"/>
   </bookViews>
   <sheets>
     <sheet name="Admin" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>varTablePath</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>dev</t>
+  </si>
+  <si>
+    <t>fPath = Excel.CurrentWorkbook(){[Name="vPaths"]}[Content]{4}[Column2],</t>
   </si>
 </sst>
 </file>
@@ -439,84 +442,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF44BCA8-79A9-49C1-B2CD-3384E6767D1C}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.28515625" customWidth="1"/>
     <col min="2" max="2" width="74.5703125" customWidth="1"/>
+    <col min="3" max="3" width="69.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="str" cm="1">
         <f t="array" aca="1" ref="B2" ca="1">CELL("filename")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>C:\Users\dolin\GitHub\excel_relativepaths\relativepathsfiles\[AdminTab.xlsx]Admin</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="e">
+      <c r="B3" s="1">
         <f ca="1">FIND("[", B2) - 1</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="e">
+      <c r="B4" t="str">
         <f ca="1">LEFT(B2,B3)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>C:\Users\dolin\GitHub\excel_relativepaths\relativepathsfiles\</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="e">
+      <c r="B5" t="str">
         <f ca="1">B$4 &amp; A5 &amp; "\"</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>C:\Users\dolin\GitHub\excel_relativepaths\relativepathsfiles\dims\</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="e">
+      <c r="B6" t="str">
         <f ca="1">B$4 &amp; A6 &amp; "\"</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>C:\Users\dolin\GitHub\excel_relativepaths\relativepathsfiles\facts\</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="e">
+      <c r="B7" t="str">
         <f ca="1">B$4 &amp; A7 &amp; "\"</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>C:\Users\dolin\GitHub\excel_relativepaths\relativepathsfiles\dev\</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
     </row>
   </sheetData>
